--- a/dumps/Stocks/ADANI GREEN ENERGY.xlsx
+++ b/dumps/Stocks/ADANI GREEN ENERGY.xlsx
@@ -1,153 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lenin/Desktop/workspace/pl/dumps/Stocks/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BECB546-A00A-2E44-A26C-02AAA8EA88DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Trading History" sheetId="1" r:id="rId1"/>
-    <sheet name="Index" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Trading History" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Index" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
-  <si>
-    <t>UnRealised</t>
-  </si>
-  <si>
-    <t>Realised</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>EXCH</t>
-  </si>
-  <si>
-    <t>ACTION</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>PRICE</t>
-  </si>
-  <si>
-    <t>COST</t>
-  </si>
-  <si>
-    <t>REMARKS</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>ADD CHRG</t>
-  </si>
-  <si>
-    <t>Current Price</t>
-  </si>
-  <si>
-    <t>Gain %</t>
-  </si>
-  <si>
-    <t>Gain</t>
-  </si>
-  <si>
-    <t>Gross</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>NSE</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>Buy</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>NSE:ADANIGREEN</t>
-  </si>
-  <si>
-    <t>Commission</t>
-  </si>
-  <si>
-    <t>52 Week High</t>
-  </si>
-  <si>
-    <t>52 Week Low</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Invested</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -170,24 +60,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,157 +425,259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AB6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="9" bestFit="1" customWidth="1"/>
+    <col width="16.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="13"/>
+    <col width="8" customWidth="1" min="14" max="14"/>
+    <col width="9" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="16.6640625" bestFit="1" customWidth="1" min="24" max="24"/>
+    <col width="9" bestFit="1" customWidth="1" min="25" max="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="J3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="1"/>
+    <row r="2">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>UnRealised</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Realised</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>EXCH</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>ACTION</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>QTY</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>PRICE</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>REMARKS</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>ADD CHRG</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Current Price</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>Gain %</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>Gain</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>Gross</t>
+        </is>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
+      <c r="W4" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="X4" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="Y4" s="1" t="inlineStr">
+        <is>
+          <t>Gain %</t>
+        </is>
+      </c>
+      <c r="Z4" s="1" t="inlineStr">
+        <is>
+          <t>Gain</t>
+        </is>
+      </c>
+      <c r="AA4" s="1" t="inlineStr">
+        <is>
+          <t>Gross</t>
+        </is>
+      </c>
+      <c r="AB4" s="1" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>46059</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>967.81</v>
-      </c>
-      <c r="F5">
-        <v>4839.05</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
+      <c r="E5" t="n">
+        <v>978.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4926.68</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CN#252611730667</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29.8</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>46057</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>964.49</v>
-      </c>
-      <c r="F6">
-        <v>4822.45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
+      <c r="E6" t="n">
+        <v>967.8099999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4839.05</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
-        <v>0</v>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>46057</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>964.49</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4822.45</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="J7">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -634,72 +686,98 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>NSE:ADANIGREEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Current Price</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Commission</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>52 Week High</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>52 Week Low</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>UnRealised</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11">
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Invested</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dumps/Stocks/ADANI GREEN ENERGY.xlsx
+++ b/dumps/Stocks/ADANI GREEN ENERGY.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -577,11 +577,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>46063</v>
+        <v>46059</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,21 +593,18 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>978.4</v>
+        <v>961</v>
       </c>
       <c r="F5" t="n">
-        <v>4926.68</v>
+        <v>4829.05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4.88</v>
+          <t>CN#252611604850</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>29.8</v>
+        <v>24.05</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -615,8 +612,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>46059</v>
+      <c r="A6" s="3" t="n">
+        <v>46057</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -632,15 +629,18 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>967.8099999999999</v>
+        <v>957.7</v>
       </c>
       <c r="F6" t="n">
-        <v>4839.05</v>
+        <v>4812.45</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
+          <t>CN#252611485581</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>23.95</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -648,12 +648,12 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>46057</v>
+      <c r="A7" s="3" t="n">
+        <v>46063</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,17 +665,89 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
+        <v>978.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4926.68</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CN#252611730667</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="I7" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J7">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>967.8099999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4839.05</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="J8">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>46057</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
         <v>964.49</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>4822.45</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="J7">
+      <c r="J9">
         <f>Index!$C$2</f>
         <v/>
       </c>
